--- a/sentimentos.xlsx
+++ b/sentimentos.xlsx
@@ -20,7 +20,7 @@
   </definedNames>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -6831,7 +6831,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField dataField="1" showAll="0"/>
@@ -7234,13 +7234,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1010"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A994" workbookViewId="0">
-      <selection activeCell="G919" sqref="G919"/>
+    <sheetView tabSelected="1" topLeftCell="A985" workbookViewId="0">
+      <selection activeCell="A918" sqref="A918"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="66.140625" customWidth="1"/>
+    <col min="1" max="1" width="90.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
   </cols>
   <sheetData>

--- a/sentimentos.xlsx
+++ b/sentimentos.xlsx
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$B$911</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$B$1010</definedName>
   </definedNames>
   <calcPr calcId="0"/>
   <pivotCaches>
@@ -3162,7 +3162,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="lab1-aluno" refreshedDate="45989.624139583335" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="910">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:B911" sheet="Sheet1"/>
+    <worksheetSource ref="A1:B1010" sheet="Sheet1"/>
   </cacheSource>
   <cacheFields count="2">
     <cacheField name="frase" numFmtId="0">
@@ -7234,8 +7234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1010"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A985" workbookViewId="0">
-      <selection activeCell="A918" sqref="A918"/>
+    <sheetView tabSelected="1" topLeftCell="A673" workbookViewId="0">
+      <selection activeCell="K635" sqref="K635"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12246,1527 +12246,1527 @@
     </row>
     <row r="626" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
-        <v>614</v>
+        <v>918</v>
       </c>
       <c r="B626" t="s">
-        <v>160</v>
+        <v>3</v>
       </c>
     </row>
     <row r="627" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
-        <v>615</v>
+        <v>919</v>
       </c>
       <c r="B627" t="s">
-        <v>160</v>
+        <v>3</v>
       </c>
     </row>
     <row r="628" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
-        <v>616</v>
+        <v>920</v>
       </c>
       <c r="B628" t="s">
-        <v>160</v>
+        <v>3</v>
       </c>
     </row>
     <row r="629" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
-        <v>617</v>
+        <v>921</v>
       </c>
       <c r="B629" t="s">
-        <v>160</v>
+        <v>3</v>
       </c>
     </row>
     <row r="630" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
-        <v>618</v>
+        <v>922</v>
       </c>
       <c r="B630" t="s">
-        <v>160</v>
+        <v>3</v>
       </c>
     </row>
     <row r="631" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
-        <v>619</v>
+        <v>923</v>
       </c>
       <c r="B631" t="s">
-        <v>160</v>
+        <v>3</v>
       </c>
     </row>
     <row r="632" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
-        <v>620</v>
+        <v>924</v>
       </c>
       <c r="B632" t="s">
-        <v>160</v>
+        <v>3</v>
       </c>
     </row>
     <row r="633" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
-        <v>621</v>
+        <v>925</v>
       </c>
       <c r="B633" t="s">
-        <v>160</v>
+        <v>3</v>
       </c>
     </row>
     <row r="634" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
-        <v>622</v>
+        <v>926</v>
       </c>
       <c r="B634" t="s">
-        <v>160</v>
+        <v>3</v>
       </c>
     </row>
     <row r="635" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
-        <v>623</v>
+        <v>927</v>
       </c>
       <c r="B635" t="s">
-        <v>160</v>
+        <v>3</v>
       </c>
     </row>
     <row r="636" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
-        <v>624</v>
+        <v>928</v>
       </c>
       <c r="B636" t="s">
-        <v>160</v>
+        <v>3</v>
       </c>
     </row>
     <row r="637" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
-        <v>625</v>
+        <v>929</v>
       </c>
       <c r="B637" t="s">
-        <v>160</v>
+        <v>3</v>
       </c>
     </row>
     <row r="638" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
-        <v>626</v>
+        <v>930</v>
       </c>
       <c r="B638" t="s">
-        <v>160</v>
+        <v>3</v>
       </c>
     </row>
     <row r="639" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
-        <v>627</v>
+        <v>931</v>
       </c>
       <c r="B639" t="s">
-        <v>160</v>
+        <v>3</v>
       </c>
     </row>
     <row r="640" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
-        <v>628</v>
+        <v>932</v>
       </c>
       <c r="B640" t="s">
-        <v>160</v>
+        <v>3</v>
       </c>
     </row>
     <row r="641" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
-        <v>629</v>
+        <v>933</v>
       </c>
       <c r="B641" t="s">
-        <v>160</v>
+        <v>3</v>
       </c>
     </row>
     <row r="642" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
-        <v>630</v>
+        <v>934</v>
       </c>
       <c r="B642" t="s">
-        <v>160</v>
+        <v>3</v>
       </c>
     </row>
     <row r="643" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
-        <v>631</v>
+        <v>935</v>
       </c>
       <c r="B643" t="s">
-        <v>160</v>
+        <v>3</v>
       </c>
     </row>
     <row r="644" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
-        <v>632</v>
+        <v>936</v>
       </c>
       <c r="B644" t="s">
-        <v>160</v>
+        <v>3</v>
       </c>
     </row>
     <row r="645" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
-        <v>633</v>
+        <v>937</v>
       </c>
       <c r="B645" t="s">
-        <v>160</v>
+        <v>3</v>
       </c>
     </row>
     <row r="646" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
-        <v>634</v>
+        <v>938</v>
       </c>
       <c r="B646" t="s">
-        <v>160</v>
+        <v>3</v>
       </c>
     </row>
     <row r="647" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
-        <v>635</v>
+        <v>939</v>
       </c>
       <c r="B647" t="s">
-        <v>160</v>
+        <v>3</v>
       </c>
     </row>
     <row r="648" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
-        <v>636</v>
+        <v>940</v>
       </c>
       <c r="B648" t="s">
-        <v>160</v>
+        <v>3</v>
       </c>
     </row>
     <row r="649" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
-        <v>637</v>
+        <v>941</v>
       </c>
       <c r="B649" t="s">
-        <v>160</v>
+        <v>3</v>
       </c>
     </row>
     <row r="650" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
-        <v>638</v>
+        <v>942</v>
       </c>
       <c r="B650" t="s">
-        <v>160</v>
+        <v>3</v>
       </c>
     </row>
     <row r="651" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
-        <v>639</v>
+        <v>943</v>
       </c>
       <c r="B651" t="s">
-        <v>160</v>
+        <v>3</v>
       </c>
     </row>
     <row r="652" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
-        <v>640</v>
+        <v>944</v>
       </c>
       <c r="B652" t="s">
-        <v>160</v>
+        <v>3</v>
       </c>
     </row>
     <row r="653" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
-        <v>641</v>
+        <v>945</v>
       </c>
       <c r="B653" t="s">
-        <v>160</v>
+        <v>3</v>
       </c>
     </row>
     <row r="654" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A654" t="s">
-        <v>642</v>
+        <v>946</v>
       </c>
       <c r="B654" t="s">
-        <v>160</v>
+        <v>3</v>
       </c>
     </row>
     <row r="655" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
-        <v>643</v>
+        <v>947</v>
       </c>
       <c r="B655" t="s">
-        <v>160</v>
+        <v>3</v>
       </c>
     </row>
     <row r="656" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
-        <v>644</v>
+        <v>948</v>
       </c>
       <c r="B656" t="s">
-        <v>160</v>
+        <v>3</v>
       </c>
     </row>
     <row r="657" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
-        <v>645</v>
+        <v>949</v>
       </c>
       <c r="B657" t="s">
-        <v>160</v>
+        <v>3</v>
       </c>
     </row>
     <row r="658" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A658" t="s">
-        <v>646</v>
+        <v>950</v>
       </c>
       <c r="B658" t="s">
-        <v>160</v>
+        <v>3</v>
       </c>
     </row>
     <row r="659" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A659" t="s">
-        <v>647</v>
+        <v>951</v>
       </c>
       <c r="B659" t="s">
-        <v>160</v>
+        <v>3</v>
       </c>
     </row>
     <row r="660" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
-        <v>648</v>
+        <v>952</v>
       </c>
       <c r="B660" t="s">
-        <v>160</v>
+        <v>3</v>
       </c>
     </row>
     <row r="661" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
-        <v>649</v>
+        <v>953</v>
       </c>
       <c r="B661" t="s">
-        <v>160</v>
+        <v>3</v>
       </c>
     </row>
     <row r="662" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
-        <v>650</v>
+        <v>954</v>
       </c>
       <c r="B662" t="s">
-        <v>160</v>
+        <v>3</v>
       </c>
     </row>
     <row r="663" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
-        <v>651</v>
+        <v>955</v>
       </c>
       <c r="B663" t="s">
-        <v>160</v>
+        <v>3</v>
       </c>
     </row>
     <row r="664" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A664" t="s">
-        <v>652</v>
+        <v>956</v>
       </c>
       <c r="B664" t="s">
-        <v>160</v>
+        <v>3</v>
       </c>
     </row>
     <row r="665" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
-        <v>653</v>
+        <v>957</v>
       </c>
       <c r="B665" t="s">
-        <v>160</v>
+        <v>3</v>
       </c>
     </row>
     <row r="666" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
-        <v>654</v>
+        <v>958</v>
       </c>
       <c r="B666" t="s">
-        <v>160</v>
+        <v>3</v>
       </c>
     </row>
     <row r="667" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A667" t="s">
-        <v>655</v>
+        <v>959</v>
       </c>
       <c r="B667" t="s">
-        <v>160</v>
+        <v>3</v>
       </c>
     </row>
     <row r="668" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A668" t="s">
-        <v>656</v>
+        <v>960</v>
       </c>
       <c r="B668" t="s">
-        <v>160</v>
+        <v>3</v>
       </c>
     </row>
     <row r="669" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A669" t="s">
-        <v>657</v>
+        <v>961</v>
       </c>
       <c r="B669" t="s">
-        <v>160</v>
+        <v>3</v>
       </c>
     </row>
     <row r="670" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A670" t="s">
-        <v>658</v>
+        <v>962</v>
       </c>
       <c r="B670" t="s">
-        <v>160</v>
+        <v>3</v>
       </c>
     </row>
     <row r="671" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A671" t="s">
-        <v>659</v>
+        <v>963</v>
       </c>
       <c r="B671" t="s">
-        <v>160</v>
+        <v>3</v>
       </c>
     </row>
     <row r="672" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
-        <v>660</v>
+        <v>964</v>
       </c>
       <c r="B672" t="s">
-        <v>160</v>
+        <v>3</v>
       </c>
     </row>
     <row r="673" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A673" t="s">
-        <v>661</v>
+        <v>965</v>
       </c>
       <c r="B673" t="s">
-        <v>160</v>
+        <v>3</v>
       </c>
     </row>
     <row r="674" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A674" t="s">
-        <v>662</v>
+        <v>966</v>
       </c>
       <c r="B674" t="s">
-        <v>160</v>
+        <v>3</v>
       </c>
     </row>
     <row r="675" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A675" t="s">
-        <v>663</v>
+        <v>967</v>
       </c>
       <c r="B675" t="s">
-        <v>160</v>
+        <v>3</v>
       </c>
     </row>
     <row r="676" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A676" t="s">
-        <v>664</v>
+        <v>968</v>
       </c>
       <c r="B676" t="s">
-        <v>160</v>
+        <v>3</v>
       </c>
     </row>
     <row r="677" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A677" t="s">
-        <v>665</v>
+        <v>969</v>
       </c>
       <c r="B677" t="s">
-        <v>160</v>
+        <v>3</v>
       </c>
     </row>
     <row r="678" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A678" t="s">
-        <v>666</v>
+        <v>970</v>
       </c>
       <c r="B678" t="s">
-        <v>160</v>
+        <v>3</v>
       </c>
     </row>
     <row r="679" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A679" t="s">
-        <v>667</v>
+        <v>971</v>
       </c>
       <c r="B679" t="s">
-        <v>160</v>
+        <v>3</v>
       </c>
     </row>
     <row r="680" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
-        <v>668</v>
+        <v>972</v>
       </c>
       <c r="B680" t="s">
-        <v>160</v>
+        <v>3</v>
       </c>
     </row>
     <row r="681" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A681" t="s">
-        <v>669</v>
+        <v>973</v>
       </c>
       <c r="B681" t="s">
-        <v>160</v>
+        <v>3</v>
       </c>
     </row>
     <row r="682" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A682" t="s">
-        <v>670</v>
+        <v>974</v>
       </c>
       <c r="B682" t="s">
-        <v>160</v>
+        <v>3</v>
       </c>
     </row>
     <row r="683" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
-        <v>671</v>
+        <v>975</v>
       </c>
       <c r="B683" t="s">
-        <v>160</v>
+        <v>3</v>
       </c>
     </row>
     <row r="684" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A684" t="s">
-        <v>672</v>
+        <v>976</v>
       </c>
       <c r="B684" t="s">
-        <v>160</v>
+        <v>3</v>
       </c>
     </row>
     <row r="685" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A685" t="s">
-        <v>673</v>
+        <v>977</v>
       </c>
       <c r="B685" t="s">
-        <v>160</v>
+        <v>3</v>
       </c>
     </row>
     <row r="686" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A686" t="s">
-        <v>674</v>
+        <v>978</v>
       </c>
       <c r="B686" t="s">
-        <v>160</v>
+        <v>3</v>
       </c>
     </row>
     <row r="687" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A687" t="s">
-        <v>675</v>
+        <v>979</v>
       </c>
       <c r="B687" t="s">
-        <v>311</v>
+        <v>3</v>
       </c>
     </row>
     <row r="688" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A688" t="s">
-        <v>676</v>
+        <v>980</v>
       </c>
       <c r="B688" t="s">
-        <v>311</v>
+        <v>3</v>
       </c>
     </row>
     <row r="689" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A689" t="s">
-        <v>677</v>
+        <v>981</v>
       </c>
       <c r="B689" t="s">
-        <v>311</v>
+        <v>3</v>
       </c>
     </row>
     <row r="690" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A690" t="s">
-        <v>678</v>
+        <v>982</v>
       </c>
       <c r="B690" t="s">
-        <v>311</v>
+        <v>3</v>
       </c>
     </row>
     <row r="691" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A691" t="s">
-        <v>679</v>
+        <v>983</v>
       </c>
       <c r="B691" t="s">
-        <v>311</v>
+        <v>3</v>
       </c>
     </row>
     <row r="692" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A692" t="s">
-        <v>680</v>
+        <v>984</v>
       </c>
       <c r="B692" t="s">
-        <v>311</v>
+        <v>3</v>
       </c>
     </row>
     <row r="693" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A693" t="s">
-        <v>681</v>
+        <v>985</v>
       </c>
       <c r="B693" t="s">
-        <v>311</v>
+        <v>3</v>
       </c>
     </row>
     <row r="694" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A694" t="s">
-        <v>682</v>
+        <v>986</v>
       </c>
       <c r="B694" t="s">
-        <v>311</v>
+        <v>3</v>
       </c>
     </row>
     <row r="695" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A695" t="s">
-        <v>683</v>
+        <v>987</v>
       </c>
       <c r="B695" t="s">
-        <v>311</v>
+        <v>3</v>
       </c>
     </row>
     <row r="696" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A696" t="s">
-        <v>684</v>
+        <v>988</v>
       </c>
       <c r="B696" t="s">
-        <v>311</v>
+        <v>3</v>
       </c>
     </row>
     <row r="697" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A697" t="s">
-        <v>685</v>
+        <v>989</v>
       </c>
       <c r="B697" t="s">
-        <v>311</v>
+        <v>3</v>
       </c>
     </row>
     <row r="698" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A698" t="s">
-        <v>686</v>
+        <v>990</v>
       </c>
       <c r="B698" t="s">
-        <v>311</v>
+        <v>3</v>
       </c>
     </row>
     <row r="699" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A699" t="s">
-        <v>687</v>
+        <v>991</v>
       </c>
       <c r="B699" t="s">
-        <v>311</v>
+        <v>3</v>
       </c>
     </row>
     <row r="700" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A700" t="s">
-        <v>688</v>
+        <v>992</v>
       </c>
       <c r="B700" t="s">
-        <v>311</v>
+        <v>3</v>
       </c>
     </row>
     <row r="701" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A701" t="s">
-        <v>689</v>
+        <v>993</v>
       </c>
       <c r="B701" t="s">
-        <v>311</v>
+        <v>3</v>
       </c>
     </row>
     <row r="702" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A702" t="s">
-        <v>690</v>
+        <v>994</v>
       </c>
       <c r="B702" t="s">
-        <v>311</v>
+        <v>3</v>
       </c>
     </row>
     <row r="703" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A703" t="s">
-        <v>691</v>
+        <v>995</v>
       </c>
       <c r="B703" t="s">
-        <v>311</v>
+        <v>3</v>
       </c>
     </row>
     <row r="704" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A704" t="s">
-        <v>692</v>
+        <v>996</v>
       </c>
       <c r="B704" t="s">
-        <v>311</v>
+        <v>3</v>
       </c>
     </row>
     <row r="705" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A705" t="s">
-        <v>693</v>
+        <v>997</v>
       </c>
       <c r="B705" t="s">
-        <v>311</v>
+        <v>3</v>
       </c>
     </row>
     <row r="706" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A706" t="s">
-        <v>694</v>
+        <v>998</v>
       </c>
       <c r="B706" t="s">
-        <v>311</v>
+        <v>3</v>
       </c>
     </row>
     <row r="707" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A707" t="s">
-        <v>695</v>
+        <v>999</v>
       </c>
       <c r="B707" t="s">
-        <v>311</v>
+        <v>3</v>
       </c>
     </row>
     <row r="708" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A708" t="s">
-        <v>696</v>
+        <v>1000</v>
       </c>
       <c r="B708" t="s">
-        <v>311</v>
+        <v>3</v>
       </c>
     </row>
     <row r="709" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A709" t="s">
-        <v>697</v>
+        <v>1001</v>
       </c>
       <c r="B709" t="s">
-        <v>311</v>
+        <v>3</v>
       </c>
     </row>
     <row r="710" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A710" t="s">
-        <v>698</v>
+        <v>1002</v>
       </c>
       <c r="B710" t="s">
-        <v>311</v>
+        <v>3</v>
       </c>
     </row>
     <row r="711" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A711" t="s">
-        <v>699</v>
+        <v>1003</v>
       </c>
       <c r="B711" t="s">
-        <v>311</v>
+        <v>3</v>
       </c>
     </row>
     <row r="712" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A712" t="s">
-        <v>700</v>
+        <v>1004</v>
       </c>
       <c r="B712" t="s">
-        <v>311</v>
+        <v>3</v>
       </c>
     </row>
     <row r="713" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A713" t="s">
-        <v>701</v>
+        <v>1005</v>
       </c>
       <c r="B713" t="s">
-        <v>311</v>
+        <v>3</v>
       </c>
     </row>
     <row r="714" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A714" t="s">
-        <v>702</v>
+        <v>1006</v>
       </c>
       <c r="B714" t="s">
-        <v>311</v>
+        <v>3</v>
       </c>
     </row>
     <row r="715" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A715" t="s">
-        <v>703</v>
+        <v>1007</v>
       </c>
       <c r="B715" t="s">
-        <v>311</v>
+        <v>3</v>
       </c>
     </row>
     <row r="716" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A716" t="s">
-        <v>704</v>
+        <v>1008</v>
       </c>
       <c r="B716" t="s">
-        <v>311</v>
+        <v>3</v>
       </c>
     </row>
     <row r="717" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A717" t="s">
-        <v>705</v>
+        <v>1009</v>
       </c>
       <c r="B717" t="s">
-        <v>290</v>
+        <v>3</v>
       </c>
     </row>
     <row r="718" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A718" t="s">
-        <v>706</v>
+        <v>1010</v>
       </c>
       <c r="B718" t="s">
-        <v>290</v>
+        <v>3</v>
       </c>
     </row>
     <row r="719" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A719" t="s">
-        <v>707</v>
+        <v>1011</v>
       </c>
       <c r="B719" t="s">
-        <v>290</v>
+        <v>3</v>
       </c>
     </row>
     <row r="720" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A720" t="s">
-        <v>708</v>
+        <v>1012</v>
       </c>
       <c r="B720" t="s">
-        <v>290</v>
+        <v>3</v>
       </c>
     </row>
     <row r="721" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A721" t="s">
-        <v>709</v>
+        <v>1013</v>
       </c>
       <c r="B721" t="s">
-        <v>290</v>
+        <v>3</v>
       </c>
     </row>
     <row r="722" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A722" t="s">
-        <v>710</v>
+        <v>1014</v>
       </c>
       <c r="B722" t="s">
-        <v>290</v>
+        <v>3</v>
       </c>
     </row>
     <row r="723" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A723" t="s">
-        <v>711</v>
+        <v>1015</v>
       </c>
       <c r="B723" t="s">
-        <v>290</v>
+        <v>3</v>
       </c>
     </row>
     <row r="724" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A724" t="s">
-        <v>712</v>
+        <v>1016</v>
       </c>
       <c r="B724" t="s">
-        <v>290</v>
+        <v>3</v>
       </c>
     </row>
     <row r="725" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A725" t="s">
-        <v>713</v>
+        <v>614</v>
       </c>
       <c r="B725" t="s">
-        <v>290</v>
+        <v>160</v>
       </c>
     </row>
     <row r="726" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A726" t="s">
-        <v>714</v>
+        <v>615</v>
       </c>
       <c r="B726" t="s">
-        <v>290</v>
+        <v>160</v>
       </c>
     </row>
     <row r="727" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A727" t="s">
-        <v>715</v>
+        <v>616</v>
       </c>
       <c r="B727" t="s">
-        <v>290</v>
+        <v>160</v>
       </c>
     </row>
     <row r="728" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A728" t="s">
-        <v>716</v>
+        <v>617</v>
       </c>
       <c r="B728" t="s">
-        <v>290</v>
+        <v>160</v>
       </c>
     </row>
     <row r="729" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A729" t="s">
-        <v>717</v>
+        <v>618</v>
       </c>
       <c r="B729" t="s">
-        <v>290</v>
+        <v>160</v>
       </c>
     </row>
     <row r="730" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A730" t="s">
-        <v>718</v>
+        <v>619</v>
       </c>
       <c r="B730" t="s">
-        <v>290</v>
+        <v>160</v>
       </c>
     </row>
     <row r="731" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A731" t="s">
-        <v>719</v>
+        <v>620</v>
       </c>
       <c r="B731" t="s">
-        <v>290</v>
+        <v>160</v>
       </c>
     </row>
     <row r="732" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A732" t="s">
-        <v>720</v>
+        <v>621</v>
       </c>
       <c r="B732" t="s">
-        <v>290</v>
+        <v>160</v>
       </c>
     </row>
     <row r="733" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A733" t="s">
-        <v>721</v>
+        <v>622</v>
       </c>
       <c r="B733" t="s">
-        <v>290</v>
+        <v>160</v>
       </c>
     </row>
     <row r="734" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A734" t="s">
-        <v>722</v>
+        <v>623</v>
       </c>
       <c r="B734" t="s">
-        <v>290</v>
+        <v>160</v>
       </c>
     </row>
     <row r="735" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A735" t="s">
-        <v>723</v>
+        <v>624</v>
       </c>
       <c r="B735" t="s">
-        <v>290</v>
+        <v>160</v>
       </c>
     </row>
     <row r="736" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A736" t="s">
-        <v>724</v>
+        <v>625</v>
       </c>
       <c r="B736" t="s">
-        <v>290</v>
+        <v>160</v>
       </c>
     </row>
     <row r="737" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A737" t="s">
-        <v>725</v>
+        <v>626</v>
       </c>
       <c r="B737" t="s">
-        <v>290</v>
+        <v>160</v>
       </c>
     </row>
     <row r="738" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A738" t="s">
-        <v>726</v>
+        <v>627</v>
       </c>
       <c r="B738" t="s">
-        <v>290</v>
+        <v>160</v>
       </c>
     </row>
     <row r="739" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A739" t="s">
-        <v>727</v>
+        <v>628</v>
       </c>
       <c r="B739" t="s">
-        <v>290</v>
+        <v>160</v>
       </c>
     </row>
     <row r="740" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A740" t="s">
-        <v>728</v>
+        <v>629</v>
       </c>
       <c r="B740" t="s">
-        <v>290</v>
+        <v>160</v>
       </c>
     </row>
     <row r="741" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A741" t="s">
-        <v>729</v>
+        <v>630</v>
       </c>
       <c r="B741" t="s">
-        <v>290</v>
+        <v>160</v>
       </c>
     </row>
     <row r="742" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A742" t="s">
-        <v>730</v>
+        <v>631</v>
       </c>
       <c r="B742" t="s">
-        <v>290</v>
+        <v>160</v>
       </c>
     </row>
     <row r="743" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A743" t="s">
-        <v>731</v>
+        <v>632</v>
       </c>
       <c r="B743" t="s">
-        <v>290</v>
+        <v>160</v>
       </c>
     </row>
     <row r="744" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A744" t="s">
-        <v>732</v>
+        <v>633</v>
       </c>
       <c r="B744" t="s">
-        <v>290</v>
+        <v>160</v>
       </c>
     </row>
     <row r="745" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A745" t="s">
-        <v>733</v>
+        <v>634</v>
       </c>
       <c r="B745" t="s">
-        <v>290</v>
+        <v>160</v>
       </c>
     </row>
     <row r="746" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A746" t="s">
-        <v>734</v>
+        <v>635</v>
       </c>
       <c r="B746" t="s">
-        <v>290</v>
+        <v>160</v>
       </c>
     </row>
     <row r="747" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A747" t="s">
-        <v>735</v>
+        <v>636</v>
       </c>
       <c r="B747" t="s">
-        <v>290</v>
+        <v>160</v>
       </c>
     </row>
     <row r="748" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A748" t="s">
-        <v>736</v>
+        <v>637</v>
       </c>
       <c r="B748" t="s">
-        <v>290</v>
+        <v>160</v>
       </c>
     </row>
     <row r="749" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A749" t="s">
-        <v>737</v>
+        <v>638</v>
       </c>
       <c r="B749" t="s">
-        <v>290</v>
+        <v>160</v>
       </c>
     </row>
     <row r="750" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A750" t="s">
-        <v>738</v>
+        <v>639</v>
       </c>
       <c r="B750" t="s">
-        <v>290</v>
+        <v>160</v>
       </c>
     </row>
     <row r="751" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A751" t="s">
-        <v>739</v>
+        <v>640</v>
       </c>
       <c r="B751" t="s">
-        <v>290</v>
+        <v>160</v>
       </c>
     </row>
     <row r="752" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A752" t="s">
-        <v>740</v>
+        <v>641</v>
       </c>
       <c r="B752" t="s">
-        <v>290</v>
+        <v>160</v>
       </c>
     </row>
     <row r="753" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A753" t="s">
-        <v>741</v>
+        <v>642</v>
       </c>
       <c r="B753" t="s">
-        <v>290</v>
+        <v>160</v>
       </c>
     </row>
     <row r="754" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A754" t="s">
-        <v>742</v>
+        <v>643</v>
       </c>
       <c r="B754" t="s">
-        <v>290</v>
+        <v>160</v>
       </c>
     </row>
     <row r="755" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A755" t="s">
-        <v>743</v>
+        <v>644</v>
       </c>
       <c r="B755" t="s">
-        <v>290</v>
+        <v>160</v>
       </c>
     </row>
     <row r="756" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A756" t="s">
-        <v>744</v>
+        <v>645</v>
       </c>
       <c r="B756" t="s">
-        <v>290</v>
+        <v>160</v>
       </c>
     </row>
     <row r="757" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A757" t="s">
-        <v>745</v>
+        <v>646</v>
       </c>
       <c r="B757" t="s">
-        <v>290</v>
+        <v>160</v>
       </c>
     </row>
     <row r="758" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A758" t="s">
-        <v>746</v>
+        <v>647</v>
       </c>
       <c r="B758" t="s">
-        <v>290</v>
+        <v>160</v>
       </c>
     </row>
     <row r="759" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A759" t="s">
-        <v>747</v>
+        <v>648</v>
       </c>
       <c r="B759" t="s">
-        <v>290</v>
+        <v>160</v>
       </c>
     </row>
     <row r="760" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A760" t="s">
-        <v>748</v>
+        <v>649</v>
       </c>
       <c r="B760" t="s">
-        <v>290</v>
+        <v>160</v>
       </c>
     </row>
     <row r="761" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A761" t="s">
-        <v>749</v>
+        <v>650</v>
       </c>
       <c r="B761" t="s">
-        <v>290</v>
+        <v>160</v>
       </c>
     </row>
     <row r="762" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A762" t="s">
-        <v>750</v>
+        <v>651</v>
       </c>
       <c r="B762" t="s">
-        <v>290</v>
+        <v>160</v>
       </c>
     </row>
     <row r="763" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A763" t="s">
-        <v>751</v>
+        <v>652</v>
       </c>
       <c r="B763" t="s">
-        <v>290</v>
+        <v>160</v>
       </c>
     </row>
     <row r="764" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A764" t="s">
-        <v>752</v>
+        <v>653</v>
       </c>
       <c r="B764" t="s">
-        <v>290</v>
+        <v>160</v>
       </c>
     </row>
     <row r="765" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A765" t="s">
-        <v>753</v>
+        <v>654</v>
       </c>
       <c r="B765" t="s">
-        <v>290</v>
+        <v>160</v>
       </c>
     </row>
     <row r="766" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A766" t="s">
-        <v>754</v>
+        <v>655</v>
       </c>
       <c r="B766" t="s">
-        <v>290</v>
+        <v>160</v>
       </c>
     </row>
     <row r="767" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A767" t="s">
-        <v>755</v>
+        <v>656</v>
       </c>
       <c r="B767" t="s">
-        <v>290</v>
+        <v>160</v>
       </c>
     </row>
     <row r="768" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A768" t="s">
-        <v>756</v>
+        <v>657</v>
       </c>
       <c r="B768" t="s">
-        <v>290</v>
+        <v>160</v>
       </c>
     </row>
     <row r="769" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A769" t="s">
-        <v>757</v>
+        <v>658</v>
       </c>
       <c r="B769" t="s">
-        <v>290</v>
+        <v>160</v>
       </c>
     </row>
     <row r="770" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A770" t="s">
-        <v>758</v>
+        <v>659</v>
       </c>
       <c r="B770" t="s">
-        <v>290</v>
+        <v>160</v>
       </c>
     </row>
     <row r="771" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A771" t="s">
-        <v>759</v>
+        <v>660</v>
       </c>
       <c r="B771" t="s">
-        <v>290</v>
+        <v>160</v>
       </c>
     </row>
     <row r="772" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A772" t="s">
-        <v>760</v>
+        <v>661</v>
       </c>
       <c r="B772" t="s">
-        <v>290</v>
+        <v>160</v>
       </c>
     </row>
     <row r="773" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A773" t="s">
-        <v>761</v>
+        <v>662</v>
       </c>
       <c r="B773" t="s">
-        <v>290</v>
+        <v>160</v>
       </c>
     </row>
     <row r="774" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A774" t="s">
-        <v>762</v>
+        <v>663</v>
       </c>
       <c r="B774" t="s">
-        <v>290</v>
+        <v>160</v>
       </c>
     </row>
     <row r="775" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A775" t="s">
-        <v>763</v>
+        <v>664</v>
       </c>
       <c r="B775" t="s">
-        <v>290</v>
+        <v>160</v>
       </c>
     </row>
     <row r="776" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A776" t="s">
-        <v>764</v>
+        <v>665</v>
       </c>
       <c r="B776" t="s">
-        <v>290</v>
+        <v>160</v>
       </c>
     </row>
     <row r="777" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A777" t="s">
-        <v>765</v>
+        <v>666</v>
       </c>
       <c r="B777" t="s">
-        <v>290</v>
+        <v>160</v>
       </c>
     </row>
     <row r="778" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A778" t="s">
-        <v>766</v>
+        <v>667</v>
       </c>
       <c r="B778" t="s">
-        <v>290</v>
+        <v>160</v>
       </c>
     </row>
     <row r="779" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A779" t="s">
-        <v>767</v>
+        <v>668</v>
       </c>
       <c r="B779" t="s">
-        <v>290</v>
+        <v>160</v>
       </c>
     </row>
     <row r="780" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A780" t="s">
-        <v>768</v>
+        <v>669</v>
       </c>
       <c r="B780" t="s">
-        <v>290</v>
+        <v>160</v>
       </c>
     </row>
     <row r="781" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A781" t="s">
-        <v>769</v>
+        <v>670</v>
       </c>
       <c r="B781" t="s">
-        <v>290</v>
+        <v>160</v>
       </c>
     </row>
     <row r="782" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A782" t="s">
-        <v>770</v>
+        <v>671</v>
       </c>
       <c r="B782" t="s">
-        <v>290</v>
+        <v>160</v>
       </c>
     </row>
     <row r="783" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A783" t="s">
-        <v>771</v>
+        <v>672</v>
       </c>
       <c r="B783" t="s">
-        <v>290</v>
+        <v>160</v>
       </c>
     </row>
     <row r="784" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A784" t="s">
-        <v>772</v>
+        <v>673</v>
       </c>
       <c r="B784" t="s">
-        <v>290</v>
+        <v>160</v>
       </c>
     </row>
     <row r="785" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A785" t="s">
-        <v>773</v>
+        <v>674</v>
       </c>
       <c r="B785" t="s">
-        <v>290</v>
+        <v>160</v>
       </c>
     </row>
     <row r="786" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A786" t="s">
-        <v>774</v>
+        <v>675</v>
       </c>
       <c r="B786" t="s">
-        <v>290</v>
+        <v>311</v>
       </c>
     </row>
     <row r="787" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A787" t="s">
-        <v>775</v>
+        <v>676</v>
       </c>
       <c r="B787" t="s">
-        <v>290</v>
+        <v>311</v>
       </c>
     </row>
     <row r="788" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A788" t="s">
-        <v>776</v>
+        <v>677</v>
       </c>
       <c r="B788" t="s">
-        <v>290</v>
+        <v>311</v>
       </c>
     </row>
     <row r="789" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A789" t="s">
-        <v>777</v>
+        <v>678</v>
       </c>
       <c r="B789" t="s">
-        <v>290</v>
+        <v>311</v>
       </c>
     </row>
     <row r="790" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A790" t="s">
-        <v>778</v>
+        <v>679</v>
       </c>
       <c r="B790" t="s">
-        <v>290</v>
+        <v>311</v>
       </c>
     </row>
     <row r="791" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A791" t="s">
-        <v>779</v>
+        <v>680</v>
       </c>
       <c r="B791" t="s">
-        <v>290</v>
+        <v>311</v>
       </c>
     </row>
     <row r="792" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A792" t="s">
-        <v>780</v>
+        <v>681</v>
       </c>
       <c r="B792" t="s">
-        <v>290</v>
+        <v>311</v>
       </c>
     </row>
     <row r="793" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A793" t="s">
-        <v>781</v>
+        <v>682</v>
       </c>
       <c r="B793" t="s">
-        <v>290</v>
+        <v>311</v>
       </c>
     </row>
     <row r="794" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A794" t="s">
-        <v>782</v>
+        <v>683</v>
       </c>
       <c r="B794" t="s">
-        <v>290</v>
+        <v>311</v>
       </c>
     </row>
     <row r="795" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A795" t="s">
-        <v>783</v>
+        <v>684</v>
       </c>
       <c r="B795" t="s">
-        <v>290</v>
+        <v>311</v>
       </c>
     </row>
     <row r="796" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A796" t="s">
-        <v>784</v>
+        <v>685</v>
       </c>
       <c r="B796" t="s">
-        <v>290</v>
+        <v>311</v>
       </c>
     </row>
     <row r="797" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A797" t="s">
-        <v>785</v>
+        <v>686</v>
       </c>
       <c r="B797" t="s">
-        <v>290</v>
+        <v>311</v>
       </c>
     </row>
     <row r="798" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A798" t="s">
-        <v>786</v>
+        <v>687</v>
       </c>
       <c r="B798" t="s">
-        <v>290</v>
+        <v>311</v>
       </c>
     </row>
     <row r="799" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A799" t="s">
-        <v>787</v>
+        <v>688</v>
       </c>
       <c r="B799" t="s">
-        <v>290</v>
+        <v>311</v>
       </c>
     </row>
     <row r="800" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A800" t="s">
-        <v>788</v>
+        <v>689</v>
       </c>
       <c r="B800" t="s">
-        <v>290</v>
+        <v>311</v>
       </c>
     </row>
     <row r="801" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A801" t="s">
-        <v>789</v>
+        <v>690</v>
       </c>
       <c r="B801" t="s">
-        <v>290</v>
+        <v>311</v>
       </c>
     </row>
     <row r="802" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A802" t="s">
-        <v>790</v>
+        <v>691</v>
       </c>
       <c r="B802" t="s">
-        <v>290</v>
+        <v>311</v>
       </c>
     </row>
     <row r="803" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A803" t="s">
-        <v>791</v>
+        <v>692</v>
       </c>
       <c r="B803" t="s">
-        <v>290</v>
+        <v>311</v>
       </c>
     </row>
     <row r="804" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A804" t="s">
-        <v>792</v>
+        <v>693</v>
       </c>
       <c r="B804" t="s">
-        <v>290</v>
+        <v>311</v>
       </c>
     </row>
     <row r="805" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A805" t="s">
-        <v>793</v>
+        <v>694</v>
       </c>
       <c r="B805" t="s">
-        <v>290</v>
+        <v>311</v>
       </c>
     </row>
     <row r="806" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A806" t="s">
-        <v>794</v>
+        <v>695</v>
       </c>
       <c r="B806" t="s">
-        <v>290</v>
+        <v>311</v>
       </c>
     </row>
     <row r="807" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A807" t="s">
-        <v>795</v>
+        <v>696</v>
       </c>
       <c r="B807" t="s">
-        <v>290</v>
+        <v>311</v>
       </c>
     </row>
     <row r="808" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A808" t="s">
-        <v>796</v>
+        <v>697</v>
       </c>
       <c r="B808" t="s">
-        <v>290</v>
+        <v>311</v>
       </c>
     </row>
     <row r="809" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A809" t="s">
-        <v>797</v>
+        <v>698</v>
       </c>
       <c r="B809" t="s">
-        <v>290</v>
+        <v>311</v>
       </c>
     </row>
     <row r="810" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A810" t="s">
-        <v>798</v>
+        <v>699</v>
       </c>
       <c r="B810" t="s">
-        <v>290</v>
+        <v>311</v>
       </c>
     </row>
     <row r="811" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A811" t="s">
-        <v>799</v>
+        <v>700</v>
       </c>
       <c r="B811" t="s">
-        <v>290</v>
+        <v>311</v>
       </c>
     </row>
     <row r="812" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A812" t="s">
-        <v>800</v>
+        <v>701</v>
       </c>
       <c r="B812" t="s">
-        <v>290</v>
+        <v>311</v>
       </c>
     </row>
     <row r="813" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A813" t="s">
-        <v>801</v>
+        <v>702</v>
       </c>
       <c r="B813" t="s">
-        <v>290</v>
+        <v>311</v>
       </c>
     </row>
     <row r="814" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A814" t="s">
-        <v>802</v>
+        <v>703</v>
       </c>
       <c r="B814" t="s">
-        <v>290</v>
+        <v>311</v>
       </c>
     </row>
     <row r="815" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A815" t="s">
-        <v>803</v>
+        <v>704</v>
       </c>
       <c r="B815" t="s">
-        <v>290</v>
+        <v>311</v>
       </c>
     </row>
     <row r="816" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A816" t="s">
-        <v>804</v>
+        <v>705</v>
       </c>
       <c r="B816" t="s">
         <v>290</v>
@@ -13774,7 +13774,7 @@
     </row>
     <row r="817" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A817" t="s">
-        <v>805</v>
+        <v>706</v>
       </c>
       <c r="B817" t="s">
         <v>290</v>
@@ -13782,7 +13782,7 @@
     </row>
     <row r="818" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A818" t="s">
-        <v>806</v>
+        <v>707</v>
       </c>
       <c r="B818" t="s">
         <v>290</v>
@@ -13790,7 +13790,7 @@
     </row>
     <row r="819" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A819" t="s">
-        <v>807</v>
+        <v>708</v>
       </c>
       <c r="B819" t="s">
         <v>290</v>
@@ -13798,7 +13798,7 @@
     </row>
     <row r="820" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A820" t="s">
-        <v>808</v>
+        <v>709</v>
       </c>
       <c r="B820" t="s">
         <v>290</v>
@@ -13806,7 +13806,7 @@
     </row>
     <row r="821" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A821" t="s">
-        <v>809</v>
+        <v>710</v>
       </c>
       <c r="B821" t="s">
         <v>290</v>
@@ -13814,7 +13814,7 @@
     </row>
     <row r="822" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A822" t="s">
-        <v>810</v>
+        <v>711</v>
       </c>
       <c r="B822" t="s">
         <v>290</v>
@@ -13822,7 +13822,7 @@
     </row>
     <row r="823" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A823" t="s">
-        <v>811</v>
+        <v>712</v>
       </c>
       <c r="B823" t="s">
         <v>290</v>
@@ -13830,7 +13830,7 @@
     </row>
     <row r="824" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A824" t="s">
-        <v>812</v>
+        <v>713</v>
       </c>
       <c r="B824" t="s">
         <v>290</v>
@@ -13838,7 +13838,7 @@
     </row>
     <row r="825" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A825" t="s">
-        <v>813</v>
+        <v>714</v>
       </c>
       <c r="B825" t="s">
         <v>290</v>
@@ -13846,7 +13846,7 @@
     </row>
     <row r="826" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A826" t="s">
-        <v>814</v>
+        <v>715</v>
       </c>
       <c r="B826" t="s">
         <v>290</v>
@@ -13854,7 +13854,7 @@
     </row>
     <row r="827" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A827" t="s">
-        <v>815</v>
+        <v>716</v>
       </c>
       <c r="B827" t="s">
         <v>290</v>
@@ -13862,7 +13862,7 @@
     </row>
     <row r="828" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A828" t="s">
-        <v>816</v>
+        <v>717</v>
       </c>
       <c r="B828" t="s">
         <v>290</v>
@@ -13870,7 +13870,7 @@
     </row>
     <row r="829" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A829" t="s">
-        <v>817</v>
+        <v>718</v>
       </c>
       <c r="B829" t="s">
         <v>290</v>
@@ -13878,7 +13878,7 @@
     </row>
     <row r="830" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A830" t="s">
-        <v>818</v>
+        <v>719</v>
       </c>
       <c r="B830" t="s">
         <v>290</v>
@@ -13886,7 +13886,7 @@
     </row>
     <row r="831" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A831" t="s">
-        <v>819</v>
+        <v>720</v>
       </c>
       <c r="B831" t="s">
         <v>290</v>
@@ -13894,7 +13894,7 @@
     </row>
     <row r="832" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A832" t="s">
-        <v>820</v>
+        <v>721</v>
       </c>
       <c r="B832" t="s">
         <v>290</v>
@@ -13902,7 +13902,7 @@
     </row>
     <row r="833" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A833" t="s">
-        <v>821</v>
+        <v>722</v>
       </c>
       <c r="B833" t="s">
         <v>290</v>
@@ -13910,7 +13910,7 @@
     </row>
     <row r="834" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A834" t="s">
-        <v>822</v>
+        <v>723</v>
       </c>
       <c r="B834" t="s">
         <v>290</v>
@@ -13918,7 +13918,7 @@
     </row>
     <row r="835" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A835" t="s">
-        <v>823</v>
+        <v>724</v>
       </c>
       <c r="B835" t="s">
         <v>290</v>
@@ -13926,7 +13926,7 @@
     </row>
     <row r="836" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A836" t="s">
-        <v>824</v>
+        <v>725</v>
       </c>
       <c r="B836" t="s">
         <v>290</v>
@@ -13934,7 +13934,7 @@
     </row>
     <row r="837" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A837" t="s">
-        <v>825</v>
+        <v>726</v>
       </c>
       <c r="B837" t="s">
         <v>290</v>
@@ -13942,7 +13942,7 @@
     </row>
     <row r="838" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A838" t="s">
-        <v>826</v>
+        <v>727</v>
       </c>
       <c r="B838" t="s">
         <v>290</v>
@@ -13950,7 +13950,7 @@
     </row>
     <row r="839" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A839" t="s">
-        <v>827</v>
+        <v>728</v>
       </c>
       <c r="B839" t="s">
         <v>290</v>
@@ -13958,7 +13958,7 @@
     </row>
     <row r="840" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A840" t="s">
-        <v>828</v>
+        <v>729</v>
       </c>
       <c r="B840" t="s">
         <v>290</v>
@@ -13966,7 +13966,7 @@
     </row>
     <row r="841" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A841" t="s">
-        <v>829</v>
+        <v>730</v>
       </c>
       <c r="B841" t="s">
         <v>290</v>
@@ -13974,7 +13974,7 @@
     </row>
     <row r="842" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A842" t="s">
-        <v>830</v>
+        <v>731</v>
       </c>
       <c r="B842" t="s">
         <v>290</v>
@@ -13982,7 +13982,7 @@
     </row>
     <row r="843" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A843" t="s">
-        <v>831</v>
+        <v>732</v>
       </c>
       <c r="B843" t="s">
         <v>290</v>
@@ -13990,7 +13990,7 @@
     </row>
     <row r="844" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A844" t="s">
-        <v>832</v>
+        <v>733</v>
       </c>
       <c r="B844" t="s">
         <v>290</v>
@@ -13998,7 +13998,7 @@
     </row>
     <row r="845" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A845" t="s">
-        <v>833</v>
+        <v>734</v>
       </c>
       <c r="B845" t="s">
         <v>290</v>
@@ -14006,7 +14006,7 @@
     </row>
     <row r="846" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A846" t="s">
-        <v>834</v>
+        <v>735</v>
       </c>
       <c r="B846" t="s">
         <v>290</v>
@@ -14014,7 +14014,7 @@
     </row>
     <row r="847" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A847" t="s">
-        <v>835</v>
+        <v>736</v>
       </c>
       <c r="B847" t="s">
         <v>290</v>
@@ -14022,7 +14022,7 @@
     </row>
     <row r="848" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A848" t="s">
-        <v>836</v>
+        <v>737</v>
       </c>
       <c r="B848" t="s">
         <v>290</v>
@@ -14030,7 +14030,7 @@
     </row>
     <row r="849" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A849" t="s">
-        <v>837</v>
+        <v>738</v>
       </c>
       <c r="B849" t="s">
         <v>290</v>
@@ -14038,7 +14038,7 @@
     </row>
     <row r="850" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A850" t="s">
-        <v>838</v>
+        <v>739</v>
       </c>
       <c r="B850" t="s">
         <v>290</v>
@@ -14046,7 +14046,7 @@
     </row>
     <row r="851" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A851" t="s">
-        <v>839</v>
+        <v>740</v>
       </c>
       <c r="B851" t="s">
         <v>290</v>
@@ -14054,1278 +14054,1278 @@
     </row>
     <row r="852" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A852" t="s">
-        <v>840</v>
+        <v>741</v>
       </c>
       <c r="B852" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
     </row>
     <row r="853" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A853" t="s">
-        <v>841</v>
+        <v>742</v>
       </c>
       <c r="B853" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
     </row>
     <row r="854" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A854" t="s">
-        <v>842</v>
+        <v>743</v>
       </c>
       <c r="B854" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
     </row>
     <row r="855" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A855" t="s">
-        <v>843</v>
+        <v>744</v>
       </c>
       <c r="B855" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
     </row>
     <row r="856" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A856" t="s">
-        <v>844</v>
+        <v>745</v>
       </c>
       <c r="B856" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
     </row>
     <row r="857" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A857" t="s">
-        <v>845</v>
+        <v>746</v>
       </c>
       <c r="B857" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
     </row>
     <row r="858" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A858" t="s">
-        <v>846</v>
+        <v>747</v>
       </c>
       <c r="B858" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
     </row>
     <row r="859" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A859" t="s">
-        <v>847</v>
+        <v>748</v>
       </c>
       <c r="B859" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
     </row>
     <row r="860" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A860" t="s">
-        <v>848</v>
+        <v>749</v>
       </c>
       <c r="B860" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
     </row>
     <row r="861" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A861" t="s">
-        <v>849</v>
+        <v>750</v>
       </c>
       <c r="B861" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
     </row>
     <row r="862" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A862" t="s">
-        <v>850</v>
+        <v>751</v>
       </c>
       <c r="B862" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
     </row>
     <row r="863" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A863" t="s">
-        <v>851</v>
+        <v>752</v>
       </c>
       <c r="B863" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
     </row>
     <row r="864" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A864" t="s">
-        <v>852</v>
+        <v>753</v>
       </c>
       <c r="B864" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
     </row>
     <row r="865" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A865" t="s">
-        <v>853</v>
+        <v>754</v>
       </c>
       <c r="B865" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
     </row>
     <row r="866" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A866" t="s">
-        <v>854</v>
+        <v>755</v>
       </c>
       <c r="B866" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
     </row>
     <row r="867" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A867" t="s">
-        <v>855</v>
+        <v>756</v>
       </c>
       <c r="B867" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
     </row>
     <row r="868" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A868" t="s">
-        <v>856</v>
+        <v>757</v>
       </c>
       <c r="B868" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
     </row>
     <row r="869" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A869" t="s">
-        <v>857</v>
+        <v>758</v>
       </c>
       <c r="B869" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
     </row>
     <row r="870" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A870" t="s">
-        <v>858</v>
+        <v>759</v>
       </c>
       <c r="B870" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
     </row>
     <row r="871" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A871" t="s">
-        <v>859</v>
+        <v>760</v>
       </c>
       <c r="B871" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
     </row>
     <row r="872" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A872" t="s">
-        <v>860</v>
+        <v>761</v>
       </c>
       <c r="B872" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
     </row>
     <row r="873" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A873" t="s">
-        <v>861</v>
+        <v>762</v>
       </c>
       <c r="B873" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
     </row>
     <row r="874" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A874" t="s">
-        <v>862</v>
+        <v>763</v>
       </c>
       <c r="B874" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
     </row>
     <row r="875" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A875" t="s">
-        <v>863</v>
+        <v>764</v>
       </c>
       <c r="B875" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
     </row>
     <row r="876" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A876" t="s">
-        <v>864</v>
+        <v>765</v>
       </c>
       <c r="B876" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
     </row>
     <row r="877" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A877" t="s">
-        <v>865</v>
+        <v>766</v>
       </c>
       <c r="B877" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
     </row>
     <row r="878" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A878" t="s">
-        <v>866</v>
+        <v>767</v>
       </c>
       <c r="B878" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
     </row>
     <row r="879" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A879" t="s">
-        <v>867</v>
+        <v>768</v>
       </c>
       <c r="B879" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
     </row>
     <row r="880" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A880" t="s">
-        <v>868</v>
+        <v>769</v>
       </c>
       <c r="B880" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
     </row>
     <row r="881" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A881" t="s">
-        <v>869</v>
+        <v>770</v>
       </c>
       <c r="B881" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
     </row>
     <row r="882" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A882" t="s">
-        <v>870</v>
+        <v>771</v>
       </c>
       <c r="B882" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
     </row>
     <row r="883" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A883" t="s">
-        <v>871</v>
+        <v>772</v>
       </c>
       <c r="B883" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
     </row>
     <row r="884" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A884" t="s">
-        <v>872</v>
+        <v>773</v>
       </c>
       <c r="B884" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
     </row>
     <row r="885" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A885" t="s">
-        <v>873</v>
+        <v>774</v>
       </c>
       <c r="B885" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
     </row>
     <row r="886" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A886" t="s">
-        <v>874</v>
+        <v>775</v>
       </c>
       <c r="B886" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
     </row>
     <row r="887" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A887" t="s">
-        <v>875</v>
+        <v>776</v>
       </c>
       <c r="B887" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
     </row>
     <row r="888" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A888" t="s">
-        <v>876</v>
+        <v>777</v>
       </c>
       <c r="B888" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
     </row>
     <row r="889" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A889" t="s">
-        <v>877</v>
+        <v>778</v>
       </c>
       <c r="B889" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
     </row>
     <row r="890" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A890" t="s">
-        <v>878</v>
+        <v>779</v>
       </c>
       <c r="B890" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
     </row>
     <row r="891" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A891" t="s">
-        <v>879</v>
+        <v>780</v>
       </c>
       <c r="B891" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
     </row>
     <row r="892" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A892" t="s">
-        <v>880</v>
+        <v>781</v>
       </c>
       <c r="B892" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
     </row>
     <row r="893" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A893" t="s">
-        <v>881</v>
+        <v>782</v>
       </c>
       <c r="B893" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
     </row>
     <row r="894" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A894" t="s">
-        <v>882</v>
+        <v>783</v>
       </c>
       <c r="B894" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
     </row>
     <row r="895" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A895" t="s">
-        <v>883</v>
+        <v>784</v>
       </c>
       <c r="B895" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
     </row>
     <row r="896" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A896" t="s">
-        <v>884</v>
+        <v>785</v>
       </c>
       <c r="B896" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
     </row>
     <row r="897" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A897" t="s">
-        <v>885</v>
+        <v>786</v>
       </c>
       <c r="B897" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
     </row>
     <row r="898" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A898" t="s">
-        <v>886</v>
+        <v>787</v>
       </c>
       <c r="B898" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
     </row>
     <row r="899" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A899" t="s">
-        <v>887</v>
+        <v>788</v>
       </c>
       <c r="B899" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
     </row>
     <row r="900" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A900" t="s">
-        <v>888</v>
+        <v>789</v>
       </c>
       <c r="B900" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
     </row>
     <row r="901" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A901" t="s">
-        <v>889</v>
+        <v>790</v>
       </c>
       <c r="B901" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
     </row>
     <row r="902" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A902" t="s">
-        <v>890</v>
+        <v>791</v>
       </c>
       <c r="B902" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
     </row>
     <row r="903" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A903" t="s">
-        <v>891</v>
+        <v>792</v>
       </c>
       <c r="B903" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
     </row>
     <row r="904" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A904" t="s">
-        <v>892</v>
+        <v>793</v>
       </c>
       <c r="B904" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
     </row>
     <row r="905" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A905" t="s">
-        <v>893</v>
+        <v>794</v>
       </c>
       <c r="B905" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
     </row>
     <row r="906" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A906" t="s">
-        <v>894</v>
+        <v>795</v>
       </c>
       <c r="B906" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
     </row>
     <row r="907" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A907" t="s">
-        <v>895</v>
+        <v>796</v>
       </c>
       <c r="B907" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
     </row>
     <row r="908" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A908" t="s">
-        <v>896</v>
+        <v>797</v>
       </c>
       <c r="B908" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
     </row>
     <row r="909" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A909" t="s">
-        <v>897</v>
+        <v>798</v>
       </c>
       <c r="B909" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
     </row>
     <row r="910" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A910" t="s">
-        <v>898</v>
+        <v>799</v>
       </c>
       <c r="B910" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
     </row>
     <row r="911" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A911" t="s">
-        <v>899</v>
+        <v>800</v>
       </c>
       <c r="B911" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
     </row>
     <row r="912" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A912" t="s">
-        <v>918</v>
+        <v>801</v>
       </c>
       <c r="B912" t="s">
-        <v>3</v>
+        <v>290</v>
       </c>
     </row>
     <row r="913" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A913" t="s">
-        <v>919</v>
+        <v>802</v>
       </c>
       <c r="B913" t="s">
-        <v>3</v>
+        <v>290</v>
       </c>
     </row>
     <row r="914" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A914" t="s">
-        <v>920</v>
+        <v>803</v>
       </c>
       <c r="B914" t="s">
-        <v>3</v>
+        <v>290</v>
       </c>
     </row>
     <row r="915" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A915" t="s">
-        <v>921</v>
+        <v>804</v>
       </c>
       <c r="B915" t="s">
-        <v>3</v>
+        <v>290</v>
       </c>
     </row>
     <row r="916" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A916" t="s">
-        <v>922</v>
+        <v>805</v>
       </c>
       <c r="B916" t="s">
-        <v>3</v>
+        <v>290</v>
       </c>
     </row>
     <row r="917" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A917" t="s">
-        <v>923</v>
+        <v>806</v>
       </c>
       <c r="B917" t="s">
-        <v>3</v>
+        <v>290</v>
       </c>
     </row>
     <row r="918" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A918" t="s">
-        <v>924</v>
+        <v>807</v>
       </c>
       <c r="B918" t="s">
-        <v>3</v>
+        <v>290</v>
       </c>
     </row>
     <row r="919" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A919" t="s">
-        <v>925</v>
+        <v>808</v>
       </c>
       <c r="B919" t="s">
-        <v>3</v>
+        <v>290</v>
       </c>
     </row>
     <row r="920" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A920" t="s">
-        <v>926</v>
+        <v>809</v>
       </c>
       <c r="B920" t="s">
-        <v>3</v>
+        <v>290</v>
       </c>
     </row>
     <row r="921" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A921" t="s">
-        <v>927</v>
+        <v>810</v>
       </c>
       <c r="B921" t="s">
-        <v>3</v>
+        <v>290</v>
       </c>
     </row>
     <row r="922" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A922" t="s">
-        <v>928</v>
+        <v>811</v>
       </c>
       <c r="B922" t="s">
-        <v>3</v>
+        <v>290</v>
       </c>
     </row>
     <row r="923" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A923" t="s">
-        <v>929</v>
+        <v>812</v>
       </c>
       <c r="B923" t="s">
-        <v>3</v>
+        <v>290</v>
       </c>
     </row>
     <row r="924" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A924" t="s">
-        <v>930</v>
+        <v>813</v>
       </c>
       <c r="B924" t="s">
-        <v>3</v>
+        <v>290</v>
       </c>
     </row>
     <row r="925" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A925" t="s">
-        <v>931</v>
+        <v>814</v>
       </c>
       <c r="B925" t="s">
-        <v>3</v>
+        <v>290</v>
       </c>
     </row>
     <row r="926" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A926" t="s">
-        <v>932</v>
+        <v>815</v>
       </c>
       <c r="B926" t="s">
-        <v>3</v>
+        <v>290</v>
       </c>
     </row>
     <row r="927" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A927" t="s">
-        <v>933</v>
+        <v>816</v>
       </c>
       <c r="B927" t="s">
-        <v>3</v>
+        <v>290</v>
       </c>
     </row>
     <row r="928" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A928" t="s">
-        <v>934</v>
+        <v>817</v>
       </c>
       <c r="B928" t="s">
-        <v>3</v>
+        <v>290</v>
       </c>
     </row>
     <row r="929" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A929" t="s">
-        <v>935</v>
+        <v>818</v>
       </c>
       <c r="B929" t="s">
-        <v>3</v>
+        <v>290</v>
       </c>
     </row>
     <row r="930" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A930" t="s">
-        <v>936</v>
+        <v>819</v>
       </c>
       <c r="B930" t="s">
-        <v>3</v>
+        <v>290</v>
       </c>
     </row>
     <row r="931" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A931" t="s">
-        <v>937</v>
+        <v>820</v>
       </c>
       <c r="B931" t="s">
-        <v>3</v>
+        <v>290</v>
       </c>
     </row>
     <row r="932" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A932" t="s">
-        <v>938</v>
+        <v>821</v>
       </c>
       <c r="B932" t="s">
-        <v>3</v>
+        <v>290</v>
       </c>
     </row>
     <row r="933" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A933" t="s">
-        <v>939</v>
+        <v>822</v>
       </c>
       <c r="B933" t="s">
-        <v>3</v>
+        <v>290</v>
       </c>
     </row>
     <row r="934" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A934" t="s">
-        <v>940</v>
+        <v>823</v>
       </c>
       <c r="B934" t="s">
-        <v>3</v>
+        <v>290</v>
       </c>
     </row>
     <row r="935" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A935" t="s">
-        <v>941</v>
+        <v>824</v>
       </c>
       <c r="B935" t="s">
-        <v>3</v>
+        <v>290</v>
       </c>
     </row>
     <row r="936" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A936" t="s">
-        <v>942</v>
+        <v>825</v>
       </c>
       <c r="B936" t="s">
-        <v>3</v>
+        <v>290</v>
       </c>
     </row>
     <row r="937" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A937" t="s">
-        <v>943</v>
+        <v>826</v>
       </c>
       <c r="B937" t="s">
-        <v>3</v>
+        <v>290</v>
       </c>
     </row>
     <row r="938" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A938" t="s">
-        <v>944</v>
+        <v>827</v>
       </c>
       <c r="B938" t="s">
-        <v>3</v>
+        <v>290</v>
       </c>
     </row>
     <row r="939" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A939" t="s">
-        <v>945</v>
+        <v>828</v>
       </c>
       <c r="B939" t="s">
-        <v>3</v>
+        <v>290</v>
       </c>
     </row>
     <row r="940" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A940" t="s">
-        <v>946</v>
+        <v>829</v>
       </c>
       <c r="B940" t="s">
-        <v>3</v>
+        <v>290</v>
       </c>
     </row>
     <row r="941" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A941" t="s">
-        <v>947</v>
+        <v>830</v>
       </c>
       <c r="B941" t="s">
-        <v>3</v>
+        <v>290</v>
       </c>
     </row>
     <row r="942" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A942" t="s">
-        <v>948</v>
+        <v>831</v>
       </c>
       <c r="B942" t="s">
-        <v>3</v>
+        <v>290</v>
       </c>
     </row>
     <row r="943" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A943" t="s">
-        <v>949</v>
+        <v>832</v>
       </c>
       <c r="B943" t="s">
-        <v>3</v>
+        <v>290</v>
       </c>
     </row>
     <row r="944" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A944" t="s">
-        <v>950</v>
+        <v>833</v>
       </c>
       <c r="B944" t="s">
-        <v>3</v>
+        <v>290</v>
       </c>
     </row>
     <row r="945" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A945" t="s">
-        <v>951</v>
+        <v>834</v>
       </c>
       <c r="B945" t="s">
-        <v>3</v>
+        <v>290</v>
       </c>
     </row>
     <row r="946" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A946" t="s">
-        <v>952</v>
+        <v>835</v>
       </c>
       <c r="B946" t="s">
-        <v>3</v>
+        <v>290</v>
       </c>
     </row>
     <row r="947" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A947" t="s">
-        <v>953</v>
+        <v>836</v>
       </c>
       <c r="B947" t="s">
-        <v>3</v>
+        <v>290</v>
       </c>
     </row>
     <row r="948" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A948" t="s">
-        <v>954</v>
+        <v>837</v>
       </c>
       <c r="B948" t="s">
-        <v>3</v>
+        <v>290</v>
       </c>
     </row>
     <row r="949" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A949" t="s">
-        <v>955</v>
+        <v>838</v>
       </c>
       <c r="B949" t="s">
-        <v>3</v>
+        <v>290</v>
       </c>
     </row>
     <row r="950" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A950" t="s">
-        <v>956</v>
+        <v>839</v>
       </c>
       <c r="B950" t="s">
-        <v>3</v>
+        <v>290</v>
       </c>
     </row>
     <row r="951" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A951" t="s">
-        <v>957</v>
+        <v>840</v>
       </c>
       <c r="B951" t="s">
-        <v>3</v>
+        <v>311</v>
       </c>
     </row>
     <row r="952" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A952" t="s">
-        <v>958</v>
+        <v>841</v>
       </c>
       <c r="B952" t="s">
-        <v>3</v>
+        <v>311</v>
       </c>
     </row>
     <row r="953" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A953" t="s">
-        <v>959</v>
+        <v>842</v>
       </c>
       <c r="B953" t="s">
-        <v>3</v>
+        <v>311</v>
       </c>
     </row>
     <row r="954" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A954" t="s">
-        <v>960</v>
+        <v>843</v>
       </c>
       <c r="B954" t="s">
-        <v>3</v>
+        <v>311</v>
       </c>
     </row>
     <row r="955" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A955" t="s">
-        <v>961</v>
+        <v>844</v>
       </c>
       <c r="B955" t="s">
-        <v>3</v>
+        <v>311</v>
       </c>
     </row>
     <row r="956" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A956" t="s">
-        <v>962</v>
+        <v>845</v>
       </c>
       <c r="B956" t="s">
-        <v>3</v>
+        <v>311</v>
       </c>
     </row>
     <row r="957" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A957" t="s">
-        <v>963</v>
+        <v>846</v>
       </c>
       <c r="B957" t="s">
-        <v>3</v>
+        <v>311</v>
       </c>
     </row>
     <row r="958" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A958" t="s">
-        <v>964</v>
+        <v>847</v>
       </c>
       <c r="B958" t="s">
-        <v>3</v>
+        <v>311</v>
       </c>
     </row>
     <row r="959" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A959" t="s">
-        <v>965</v>
+        <v>848</v>
       </c>
       <c r="B959" t="s">
-        <v>3</v>
+        <v>311</v>
       </c>
     </row>
     <row r="960" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A960" t="s">
-        <v>966</v>
+        <v>849</v>
       </c>
       <c r="B960" t="s">
-        <v>3</v>
+        <v>311</v>
       </c>
     </row>
     <row r="961" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A961" t="s">
-        <v>967</v>
+        <v>850</v>
       </c>
       <c r="B961" t="s">
-        <v>3</v>
+        <v>311</v>
       </c>
     </row>
     <row r="962" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A962" t="s">
-        <v>968</v>
+        <v>851</v>
       </c>
       <c r="B962" t="s">
-        <v>3</v>
+        <v>311</v>
       </c>
     </row>
     <row r="963" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A963" t="s">
-        <v>969</v>
+        <v>852</v>
       </c>
       <c r="B963" t="s">
-        <v>3</v>
+        <v>311</v>
       </c>
     </row>
     <row r="964" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A964" t="s">
-        <v>970</v>
+        <v>853</v>
       </c>
       <c r="B964" t="s">
-        <v>3</v>
+        <v>311</v>
       </c>
     </row>
     <row r="965" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A965" t="s">
-        <v>971</v>
+        <v>854</v>
       </c>
       <c r="B965" t="s">
-        <v>3</v>
+        <v>311</v>
       </c>
     </row>
     <row r="966" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A966" t="s">
-        <v>972</v>
+        <v>855</v>
       </c>
       <c r="B966" t="s">
-        <v>3</v>
+        <v>311</v>
       </c>
     </row>
     <row r="967" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A967" t="s">
-        <v>973</v>
+        <v>856</v>
       </c>
       <c r="B967" t="s">
-        <v>3</v>
+        <v>311</v>
       </c>
     </row>
     <row r="968" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A968" t="s">
-        <v>974</v>
+        <v>857</v>
       </c>
       <c r="B968" t="s">
-        <v>3</v>
+        <v>311</v>
       </c>
     </row>
     <row r="969" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A969" t="s">
-        <v>975</v>
+        <v>858</v>
       </c>
       <c r="B969" t="s">
-        <v>3</v>
+        <v>311</v>
       </c>
     </row>
     <row r="970" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A970" t="s">
-        <v>976</v>
+        <v>859</v>
       </c>
       <c r="B970" t="s">
-        <v>3</v>
+        <v>311</v>
       </c>
     </row>
     <row r="971" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A971" t="s">
-        <v>977</v>
+        <v>860</v>
       </c>
       <c r="B971" t="s">
-        <v>3</v>
+        <v>311</v>
       </c>
     </row>
     <row r="972" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A972" t="s">
-        <v>978</v>
+        <v>861</v>
       </c>
       <c r="B972" t="s">
-        <v>3</v>
+        <v>311</v>
       </c>
     </row>
     <row r="973" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A973" t="s">
-        <v>979</v>
+        <v>862</v>
       </c>
       <c r="B973" t="s">
-        <v>3</v>
+        <v>311</v>
       </c>
     </row>
     <row r="974" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A974" t="s">
-        <v>980</v>
+        <v>863</v>
       </c>
       <c r="B974" t="s">
-        <v>3</v>
+        <v>311</v>
       </c>
     </row>
     <row r="975" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A975" t="s">
-        <v>981</v>
+        <v>864</v>
       </c>
       <c r="B975" t="s">
-        <v>3</v>
+        <v>311</v>
       </c>
     </row>
     <row r="976" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A976" t="s">
-        <v>982</v>
+        <v>865</v>
       </c>
       <c r="B976" t="s">
-        <v>3</v>
+        <v>311</v>
       </c>
     </row>
     <row r="977" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A977" t="s">
-        <v>983</v>
+        <v>866</v>
       </c>
       <c r="B977" t="s">
-        <v>3</v>
+        <v>311</v>
       </c>
     </row>
     <row r="978" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A978" t="s">
-        <v>984</v>
+        <v>867</v>
       </c>
       <c r="B978" t="s">
-        <v>3</v>
+        <v>311</v>
       </c>
     </row>
     <row r="979" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A979" t="s">
-        <v>985</v>
+        <v>868</v>
       </c>
       <c r="B979" t="s">
-        <v>3</v>
+        <v>311</v>
       </c>
     </row>
     <row r="980" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A980" t="s">
-        <v>986</v>
+        <v>869</v>
       </c>
       <c r="B980" t="s">
-        <v>3</v>
+        <v>311</v>
       </c>
     </row>
     <row r="981" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A981" t="s">
-        <v>987</v>
+        <v>870</v>
       </c>
       <c r="B981" t="s">
-        <v>3</v>
+        <v>311</v>
       </c>
     </row>
     <row r="982" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A982" t="s">
-        <v>988</v>
+        <v>871</v>
       </c>
       <c r="B982" t="s">
-        <v>3</v>
+        <v>311</v>
       </c>
     </row>
     <row r="983" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A983" t="s">
-        <v>989</v>
+        <v>872</v>
       </c>
       <c r="B983" t="s">
-        <v>3</v>
+        <v>311</v>
       </c>
     </row>
     <row r="984" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A984" t="s">
-        <v>990</v>
+        <v>873</v>
       </c>
       <c r="B984" t="s">
-        <v>3</v>
+        <v>311</v>
       </c>
     </row>
     <row r="985" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A985" t="s">
-        <v>991</v>
+        <v>874</v>
       </c>
       <c r="B985" t="s">
-        <v>3</v>
+        <v>311</v>
       </c>
     </row>
     <row r="986" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A986" t="s">
-        <v>992</v>
+        <v>875</v>
       </c>
       <c r="B986" t="s">
-        <v>3</v>
+        <v>311</v>
       </c>
     </row>
     <row r="987" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A987" t="s">
-        <v>993</v>
+        <v>876</v>
       </c>
       <c r="B987" t="s">
-        <v>3</v>
+        <v>311</v>
       </c>
     </row>
     <row r="988" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A988" t="s">
-        <v>994</v>
+        <v>877</v>
       </c>
       <c r="B988" t="s">
-        <v>3</v>
+        <v>311</v>
       </c>
     </row>
     <row r="989" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A989" t="s">
-        <v>995</v>
+        <v>878</v>
       </c>
       <c r="B989" t="s">
-        <v>3</v>
+        <v>311</v>
       </c>
     </row>
     <row r="990" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A990" t="s">
-        <v>996</v>
+        <v>879</v>
       </c>
       <c r="B990" t="s">
-        <v>3</v>
+        <v>311</v>
       </c>
     </row>
     <row r="991" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A991" t="s">
-        <v>997</v>
+        <v>880</v>
       </c>
       <c r="B991" t="s">
-        <v>3</v>
+        <v>311</v>
       </c>
     </row>
     <row r="992" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A992" t="s">
-        <v>998</v>
+        <v>881</v>
       </c>
       <c r="B992" t="s">
-        <v>3</v>
+        <v>311</v>
       </c>
     </row>
     <row r="993" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A993" t="s">
-        <v>999</v>
+        <v>882</v>
       </c>
       <c r="B993" t="s">
-        <v>3</v>
+        <v>311</v>
       </c>
     </row>
     <row r="994" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A994" t="s">
-        <v>1000</v>
+        <v>883</v>
       </c>
       <c r="B994" t="s">
-        <v>3</v>
+        <v>311</v>
       </c>
     </row>
     <row r="995" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A995" t="s">
-        <v>1001</v>
+        <v>884</v>
       </c>
       <c r="B995" t="s">
-        <v>3</v>
+        <v>311</v>
       </c>
     </row>
     <row r="996" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A996" t="s">
-        <v>1002</v>
+        <v>885</v>
       </c>
       <c r="B996" t="s">
-        <v>3</v>
+        <v>311</v>
       </c>
     </row>
     <row r="997" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A997" t="s">
-        <v>1003</v>
+        <v>886</v>
       </c>
       <c r="B997" t="s">
-        <v>3</v>
+        <v>311</v>
       </c>
     </row>
     <row r="998" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A998" t="s">
-        <v>1004</v>
+        <v>887</v>
       </c>
       <c r="B998" t="s">
-        <v>3</v>
+        <v>311</v>
       </c>
     </row>
     <row r="999" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A999" t="s">
-        <v>1005</v>
+        <v>888</v>
       </c>
       <c r="B999" t="s">
-        <v>3</v>
+        <v>311</v>
       </c>
     </row>
     <row r="1000" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1000" t="s">
-        <v>1006</v>
+        <v>889</v>
       </c>
       <c r="B1000" t="s">
-        <v>3</v>
+        <v>311</v>
       </c>
     </row>
     <row r="1001" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1001" t="s">
-        <v>1007</v>
+        <v>890</v>
       </c>
       <c r="B1001" t="s">
-        <v>3</v>
+        <v>311</v>
       </c>
     </row>
     <row r="1002" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1002" t="s">
-        <v>1008</v>
+        <v>891</v>
       </c>
       <c r="B1002" t="s">
-        <v>3</v>
+        <v>311</v>
       </c>
     </row>
     <row r="1003" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1003" t="s">
-        <v>1009</v>
+        <v>892</v>
       </c>
       <c r="B1003" t="s">
-        <v>3</v>
+        <v>311</v>
       </c>
     </row>
     <row r="1004" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1004" t="s">
-        <v>1010</v>
+        <v>893</v>
       </c>
       <c r="B1004" t="s">
-        <v>3</v>
+        <v>311</v>
       </c>
     </row>
     <row r="1005" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1005" t="s">
-        <v>1011</v>
+        <v>894</v>
       </c>
       <c r="B1005" t="s">
-        <v>3</v>
+        <v>311</v>
       </c>
     </row>
     <row r="1006" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1006" t="s">
-        <v>1012</v>
+        <v>895</v>
       </c>
       <c r="B1006" t="s">
-        <v>3</v>
+        <v>311</v>
       </c>
     </row>
     <row r="1007" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1007" t="s">
-        <v>1013</v>
+        <v>896</v>
       </c>
       <c r="B1007" t="s">
-        <v>3</v>
+        <v>311</v>
       </c>
     </row>
     <row r="1008" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1008" t="s">
-        <v>1014</v>
+        <v>897</v>
       </c>
       <c r="B1008" t="s">
-        <v>3</v>
+        <v>311</v>
       </c>
     </row>
     <row r="1009" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1009" t="s">
-        <v>1015</v>
+        <v>898</v>
       </c>
       <c r="B1009" t="s">
-        <v>3</v>
+        <v>311</v>
       </c>
     </row>
     <row r="1010" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1010" t="s">
-        <v>1016</v>
+        <v>899</v>
       </c>
       <c r="B1010" t="s">
-        <v>3</v>
+        <v>311</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B911"/>
+  <autoFilter ref="A1:B1010"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/sentimentos.xlsx
+++ b/sentimentos.xlsx
@@ -7234,8 +7234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1010"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A673" workbookViewId="0">
-      <selection activeCell="K635" sqref="K635"/>
+    <sheetView tabSelected="1" topLeftCell="A994" workbookViewId="0">
+      <selection activeCell="D1009" sqref="D1009"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/sentimentos.xlsx
+++ b/sentimentos.xlsx
@@ -7234,7 +7234,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1010"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A994" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D1009" sqref="D1009"/>
     </sheetView>
   </sheetViews>
@@ -15325,7 +15325,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B1010"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>